--- a/7-Excel sheets misc/FTICRMS SPE dilutions template - Copy - Copy.xlsx
+++ b/7-Excel sheets misc/FTICRMS SPE dilutions template - Copy - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/connor_oloughlin_pnnl_gov/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{34E3467D-1CE3-514C-A646-199E90790F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA445847-D286-4FB9-A5B1-0F872E320F88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374128F9-D174-4490-9FEB-E9670EB72263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
   </bookViews>
@@ -282,12 +282,6 @@
     <t>Sample_ID</t>
   </si>
   <si>
-    <t>DOC (mg/L)</t>
-  </si>
-  <si>
-    <t>Actual Vol SPE'd (mL)</t>
-  </si>
-  <si>
     <t>Actual Vol MeOH (mL)</t>
   </si>
   <si>
@@ -393,9 +387,6 @@
     <t>TMP_0.C.4_EXP</t>
   </si>
   <si>
-    <t>Short ID</t>
-  </si>
-  <si>
     <t>5.B.1</t>
   </si>
   <si>
@@ -973,6 +964,15 @@
   </si>
   <si>
     <t>Blk2</t>
+  </si>
+  <si>
+    <t>DOC_mg/L</t>
+  </si>
+  <si>
+    <t>Short_ID</t>
+  </si>
+  <si>
+    <t>Actual_Vol_SPE'd_mL</t>
   </si>
 </sst>
 </file>
@@ -1744,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D07A3E-9050-4F42-8C8E-5CEE8C3DD998}">
   <dimension ref="A1:Z206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1775,75 +1775,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="W1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2">
@@ -1921,17 +1921,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3">
+        <v>12</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1942,7 +1945,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="Y3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z3">
         <v>792</v>
@@ -1950,10 +1953,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1965,7 +1971,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="Y4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z4">
         <f>Z3*(1000/1000000)</f>
@@ -1974,10 +1980,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1991,12 +2000,15 @@
     </row>
     <row r="6" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="D6">
+        <v>12</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2007,18 +2019,18 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="Y6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>7.3819999999999997</v>
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2030,7 +2042,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="Y7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="e">
         <f>#REF!*(1000/1000000)</f>
@@ -2039,12 +2051,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2"/>
+      <c r="D8">
+        <v>12</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2057,10 +2072,13 @@
     </row>
     <row r="9" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2074,10 +2092,13 @@
     </row>
     <row r="10" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2091,12 +2112,15 @@
     </row>
     <row r="11" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11">
+        <v>12</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2109,10 +2133,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2126,12 +2153,15 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1"/>
+      <c r="D13">
+        <v>12</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2144,12 +2174,15 @@
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2"/>
+      <c r="D14">
+        <v>2.5</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2162,10 +2195,13 @@
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2179,12 +2215,15 @@
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1"/>
+      <c r="D16">
+        <v>4</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2197,12 +2236,15 @@
     </row>
     <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2"/>
+      <c r="D17">
+        <v>4</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2215,10 +2257,13 @@
     </row>
     <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2232,12 +2277,15 @@
     </row>
     <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1"/>
+      <c r="D19">
+        <v>6</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2250,10 +2298,13 @@
     </row>
     <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2267,10 +2318,13 @@
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2284,12 +2338,15 @@
     </row>
     <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1"/>
+      <c r="D22">
+        <v>6</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2302,10 +2359,13 @@
     </row>
     <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2319,10 +2379,13 @@
     </row>
     <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2336,10 +2399,13 @@
     </row>
     <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2353,10 +2419,13 @@
     </row>
     <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2370,10 +2439,13 @@
     </row>
     <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2387,10 +2459,13 @@
     </row>
     <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2404,10 +2479,13 @@
     </row>
     <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2421,10 +2499,13 @@
     </row>
     <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2438,10 +2519,13 @@
     </row>
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2455,10 +2539,13 @@
     </row>
     <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2472,10 +2559,13 @@
     </row>
     <row r="33" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2489,10 +2579,13 @@
     </row>
     <row r="34" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2506,10 +2599,13 @@
     </row>
     <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2523,10 +2619,13 @@
     </row>
     <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2540,10 +2639,13 @@
     </row>
     <row r="37" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2557,10 +2659,13 @@
     </row>
     <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2574,10 +2679,13 @@
     </row>
     <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2591,10 +2699,13 @@
     </row>
     <row r="40" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2608,10 +2719,13 @@
     </row>
     <row r="41" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2625,10 +2739,13 @@
     </row>
     <row r="42" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2642,10 +2759,13 @@
     </row>
     <row r="43" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2659,10 +2779,13 @@
     </row>
     <row r="44" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2676,10 +2799,13 @@
     </row>
     <row r="45" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2693,10 +2819,13 @@
     </row>
     <row r="46" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2710,10 +2839,13 @@
     </row>
     <row r="47" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2727,10 +2859,13 @@
     </row>
     <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2744,10 +2879,13 @@
     </row>
     <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2761,10 +2899,13 @@
     </row>
     <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2778,10 +2919,13 @@
     </row>
     <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2795,10 +2939,13 @@
     </row>
     <row r="52" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2812,10 +2959,13 @@
     </row>
     <row r="53" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2829,10 +2979,13 @@
     </row>
     <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2846,10 +2999,13 @@
     </row>
     <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -2863,10 +3019,13 @@
     </row>
     <row r="56" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2880,10 +3039,13 @@
     </row>
     <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2897,10 +3059,13 @@
     </row>
     <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2914,10 +3079,13 @@
     </row>
     <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2931,10 +3099,13 @@
     </row>
     <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2948,10 +3119,13 @@
     </row>
     <row r="61" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2965,10 +3139,13 @@
     </row>
     <row r="62" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -2982,10 +3159,13 @@
     </row>
     <row r="63" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -2999,10 +3179,13 @@
     </row>
     <row r="64" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3016,10 +3199,13 @@
     </row>
     <row r="65" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3033,10 +3219,13 @@
     </row>
     <row r="66" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3050,10 +3239,13 @@
     </row>
     <row r="67" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3067,10 +3259,13 @@
     </row>
     <row r="68" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3084,10 +3279,13 @@
     </row>
     <row r="69" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3101,10 +3299,13 @@
     </row>
     <row r="70" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3118,10 +3319,13 @@
     </row>
     <row r="71" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3135,10 +3339,13 @@
     </row>
     <row r="72" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3152,10 +3359,13 @@
     </row>
     <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3169,10 +3379,13 @@
     </row>
     <row r="74" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3186,10 +3399,13 @@
     </row>
     <row r="75" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3203,10 +3419,13 @@
     </row>
     <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3220,10 +3439,13 @@
     </row>
     <row r="77" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3237,10 +3459,13 @@
     </row>
     <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3254,10 +3479,13 @@
     </row>
     <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -3271,10 +3499,13 @@
     </row>
     <row r="80" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3288,10 +3519,13 @@
     </row>
     <row r="81" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -3305,10 +3539,13 @@
     </row>
     <row r="82" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3322,10 +3559,13 @@
     </row>
     <row r="83" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3339,10 +3579,13 @@
     </row>
     <row r="84" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3356,10 +3599,13 @@
     </row>
     <row r="85" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3373,10 +3619,13 @@
     </row>
     <row r="86" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3390,10 +3639,13 @@
     </row>
     <row r="87" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -3407,10 +3659,13 @@
     </row>
     <row r="88" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -3424,10 +3679,13 @@
     </row>
     <row r="89" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -3441,10 +3699,13 @@
     </row>
     <row r="90" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -3458,10 +3719,13 @@
     </row>
     <row r="91" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3475,10 +3739,13 @@
     </row>
     <row r="92" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3492,10 +3759,13 @@
     </row>
     <row r="93" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3509,10 +3779,13 @@
     </row>
     <row r="94" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3526,10 +3799,13 @@
     </row>
     <row r="95" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3543,10 +3819,13 @@
     </row>
     <row r="96" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3560,10 +3839,13 @@
     </row>
     <row r="97" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -3577,10 +3859,13 @@
     </row>
     <row r="98" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="D98">
+        <v>2.5</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -3594,10 +3879,13 @@
     </row>
     <row r="99" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="D99">
+        <v>2.5</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -3611,10 +3899,13 @@
     </row>
     <row r="100" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="D100">
+        <v>2.5</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -3628,10 +3919,13 @@
     </row>
     <row r="101" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="D101">
+        <v>2.5</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -3645,10 +3939,13 @@
     </row>
     <row r="102" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="D102">
+        <v>2.5</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -3662,10 +3959,13 @@
     </row>
     <row r="103" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="D103">
+        <v>2.5</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -3679,10 +3979,13 @@
     </row>
     <row r="104" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5058,28 +5361,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -6525,26 +6828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DC853A563ABF64B8421887057055B0F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73e5d7f23b6143b72c394d0b791b373d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="03570766-e33a-4164-8943-6d32a7ac417a" xmlns:ns3="5cece13e-3376-4417-9525-be60b11a89a8" xmlns:ns4="482683a9-e61d-4853-b10b-3f4a908e17aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd41d5c3e91c11ef649cb8e5f5e12511" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="03570766-e33a-4164-8943-6d32a7ac417a"/>
@@ -6772,26 +7055,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF21F518-5840-4B9C-B7A7-C68FEFA76CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
-    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A0AA8-69A1-4E24-B4DE-BB19F441F5A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6809,4 +7093,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF21F518-5840-4B9C-B7A7-C68FEFA76CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>